--- a/REGULAR/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/DE VILLA, MYRNA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F805BD7-0F58-4ABC-9CB3-F5B1771857D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3F81D0-D6CC-44C5-80D7-F8BF090D2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="461">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2114,7 +2114,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2463,9 +2463,9 @@
   <dimension ref="A2:K782"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3444" topLeftCell="A747" activePane="bottomLeft"/>
+      <pane ySplit="3444" topLeftCell="A750" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="I758" sqref="I758"/>
+      <selection pane="bottomLeft" activeCell="B763" sqref="B763"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2624,7 +2624,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>81.994999999999976</v>
+        <v>86.994999999999976</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2634,7 +2634,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>105.37499999999997</v>
+        <v>109.37499999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18720,7 +18720,7 @@
     </row>
     <row r="756" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A756" s="40">
-        <v>44927</v>
+        <v>44957</v>
       </c>
       <c r="B756" s="20" t="s">
         <v>54</v>
@@ -18768,7 +18768,7 @@
     </row>
     <row r="758" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A758" s="40">
-        <v>44958</v>
+        <v>44985</v>
       </c>
       <c r="B758" s="20"/>
       <c r="C758" s="13">
@@ -18788,16 +18788,18 @@
     </row>
     <row r="759" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A759" s="40">
-        <v>44986</v>
+        <v>45016</v>
       </c>
       <c r="B759" s="20"/>
-      <c r="C759" s="13"/>
+      <c r="C759" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D759" s="39"/>
       <c r="E759" s="9"/>
       <c r="F759" s="20"/>
-      <c r="G759" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G759" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H759" s="39"/>
       <c r="I759" s="9"/>
@@ -18806,16 +18808,18 @@
     </row>
     <row r="760" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A760" s="40">
-        <v>45017</v>
+        <v>45046</v>
       </c>
       <c r="B760" s="20"/>
-      <c r="C760" s="13"/>
+      <c r="C760" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D760" s="39"/>
       <c r="E760" s="9"/>
       <c r="F760" s="20"/>
-      <c r="G760" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G760" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H760" s="39"/>
       <c r="I760" s="9"/>
@@ -18824,16 +18828,18 @@
     </row>
     <row r="761" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A761" s="40">
-        <v>45047</v>
+        <v>45077</v>
       </c>
       <c r="B761" s="20"/>
-      <c r="C761" s="13"/>
+      <c r="C761" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D761" s="39"/>
       <c r="E761" s="9"/>
       <c r="F761" s="20"/>
-      <c r="G761" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G761" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H761" s="39"/>
       <c r="I761" s="9"/>
@@ -18842,25 +18848,33 @@
     </row>
     <row r="762" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A762" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B762" s="20"/>
-      <c r="C762" s="13"/>
+        <v>45107</v>
+      </c>
+      <c r="B762" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C762" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D762" s="39"/>
       <c r="E762" s="9"/>
       <c r="F762" s="20"/>
-      <c r="G762" s="41" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H762" s="39"/>
+      <c r="G762" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H762" s="39">
+        <v>1</v>
+      </c>
       <c r="I762" s="9"/>
       <c r="J762" s="11"/>
-      <c r="K762" s="20"/>
+      <c r="K762" s="48">
+        <v>45100</v>
+      </c>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A763" s="40">
-        <v>45108</v>
+        <v>45138</v>
       </c>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -18878,7 +18892,7 @@
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
-        <v>45139</v>
+        <v>45169</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -18896,7 +18910,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40">
-        <v>45170</v>
+        <v>45199</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -18914,7 +18928,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40">
-        <v>45200</v>
+        <v>45230</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -18932,7 +18946,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40">
-        <v>45231</v>
+        <v>45260</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -18950,7 +18964,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40">
-        <v>45261</v>
+        <v>45291</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -18968,7 +18982,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40">
-        <v>45292</v>
+        <v>45322</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -18986,7 +19000,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40">
-        <v>45323</v>
+        <v>45351</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19004,7 +19018,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40">
-        <v>45352</v>
+        <v>45382</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19022,7 +19036,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40">
-        <v>45383</v>
+        <v>45412</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19040,7 +19054,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40">
-        <v>45413</v>
+        <v>45443</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19058,7 +19072,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="40">
-        <v>45444</v>
+        <v>45473</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19076,7 +19090,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="40">
-        <v>45474</v>
+        <v>45504</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19094,7 +19108,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="40">
-        <v>45505</v>
+        <v>45535</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19112,7 +19126,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="40">
-        <v>45536</v>
+        <v>45565</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19130,7 +19144,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="40">
-        <v>45566</v>
+        <v>45596</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19148,7 +19162,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="40">
-        <v>45597</v>
+        <v>45626</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19166,7 +19180,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="40">
-        <v>45627</v>
+        <v>45657</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19184,7 +19198,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="40">
-        <v>45658</v>
+        <v>45688</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19202,7 +19216,7 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="40">
-        <v>45689</v>
+        <v>45716</v>
       </c>
       <c r="B782" s="15"/>
       <c r="C782" s="41"/>

--- a/REGULAR/DE VILLA, MYRNA.xlsx
+++ b/REGULAR/DE VILLA, MYRNA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3F81D0-D6CC-44C5-80D7-F8BF090D2740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE14714D-FADF-41BB-8A8D-EFBBB11595FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="461">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2131,7 +2131,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K782" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K783" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
@@ -2460,12 +2460,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K782"/>
+  <dimension ref="A2:K783"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3444" topLeftCell="A750" activePane="bottomLeft"/>
+      <pane ySplit="3444" topLeftCell="A753" activePane="bottomLeft"/>
       <selection activeCell="D1" sqref="D1:D1048576"/>
-      <selection pane="bottomLeft" activeCell="B763" sqref="B763"/>
+      <selection pane="bottomLeft" activeCell="B764" sqref="B764"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2634,7 +2634,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>109.37499999999997</v>
+        <v>108.37499999999997</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18873,10 +18873,10 @@
       </c>
     </row>
     <row r="763" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A763" s="40">
-        <v>45138</v>
-      </c>
-      <c r="B763" s="20"/>
+      <c r="A763" s="40"/>
+      <c r="B763" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C763" s="13"/>
       <c r="D763" s="39"/>
       <c r="E763" s="9"/>
@@ -18885,14 +18885,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H763" s="39"/>
+      <c r="H763" s="39">
+        <v>1</v>
+      </c>
       <c r="I763" s="9"/>
       <c r="J763" s="11"/>
-      <c r="K763" s="20"/>
+      <c r="K763" s="48">
+        <v>45104</v>
+      </c>
     </row>
     <row r="764" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A764" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -18910,7 +18914,7 @@
     </row>
     <row r="765" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A765" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -18928,7 +18932,7 @@
     </row>
     <row r="766" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A766" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -18946,7 +18950,7 @@
     </row>
     <row r="767" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A767" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -18964,7 +18968,7 @@
     </row>
     <row r="768" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A768" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -18982,7 +18986,7 @@
     </row>
     <row r="769" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A769" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -19000,7 +19004,7 @@
     </row>
     <row r="770" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A770" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -19018,7 +19022,7 @@
     </row>
     <row r="771" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A771" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -19036,7 +19040,7 @@
     </row>
     <row r="772" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A772" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -19054,7 +19058,7 @@
     </row>
     <row r="773" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A773" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -19072,7 +19076,7 @@
     </row>
     <row r="774" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A774" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -19090,7 +19094,7 @@
     </row>
     <row r="775" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A775" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -19108,7 +19112,7 @@
     </row>
     <row r="776" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A776" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -19126,7 +19130,7 @@
     </row>
     <row r="777" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A777" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -19144,7 +19148,7 @@
     </row>
     <row r="778" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A778" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -19162,7 +19166,7 @@
     </row>
     <row r="779" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A779" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -19180,7 +19184,7 @@
     </row>
     <row r="780" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A780" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -19198,7 +19202,7 @@
     </row>
     <row r="781" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A781" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -19216,21 +19220,39 @@
     </row>
     <row r="782" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A782" s="40">
+        <v>45688</v>
+      </c>
+      <c r="B782" s="20"/>
+      <c r="C782" s="13"/>
+      <c r="D782" s="39"/>
+      <c r="E782" s="9"/>
+      <c r="F782" s="20"/>
+      <c r="G782" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H782" s="39"/>
+      <c r="I782" s="9"/>
+      <c r="J782" s="11"/>
+      <c r="K782" s="20"/>
+    </row>
+    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A783" s="40">
         <v>45716</v>
       </c>
-      <c r="B782" s="15"/>
-      <c r="C782" s="41"/>
-      <c r="D782" s="42"/>
-      <c r="E782" s="50"/>
-      <c r="F782" s="15"/>
-      <c r="G782" s="41" t="str">
+      <c r="B783" s="15"/>
+      <c r="C783" s="41"/>
+      <c r="D783" s="42"/>
+      <c r="E783" s="50"/>
+      <c r="F783" s="15"/>
+      <c r="G783" s="41" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H782" s="42"/>
-      <c r="I782" s="50"/>
-      <c r="J782" s="12"/>
-      <c r="K782" s="15"/>
+      <c r="H783" s="42"/>
+      <c r="I783" s="50"/>
+      <c r="J783" s="12"/>
+      <c r="K783" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
